--- a/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,17 +6,19 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_spearman_25" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_spearman_26" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_spearman_61" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_9" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_12" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_23" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_32" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_36" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="64">
   <si>
-    <t>Correlation information for DiffTheta - Interest/Enjoyment in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -25,10 +27,10 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>Gains in Skills/Knowledge</t>
   </si>
   <si>
-    <t>Interest/Enjoyment</t>
+    <t>Intrinsic Motivation</t>
   </si>
   <si>
     <t>Matrix of t-test value</t>
@@ -52,13 +54,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffTh-Int/E</t>
+    <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Interest/Enjoyment in ont-gamified.Master</t>
+    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Interest/Enjoyment in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -77,6 +79,81 @@
   </si>
   <si>
     <t>PlayerRole</t>
+  </si>
+  <si>
+    <t>w/o-gamified</t>
+  </si>
+  <si>
+    <t>Grupo7</t>
+  </si>
+  <si>
+    <t>Grupo10</t>
+  </si>
+  <si>
+    <t>Grupo1</t>
+  </si>
+  <si>
+    <t>Grupo3</t>
+  </si>
+  <si>
+    <t>Grupo5</t>
+  </si>
+  <si>
+    <t>Grupo9</t>
+  </si>
+  <si>
+    <t>Grupo2</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified using the method: spearman</t>
+  </si>
+  <si>
+    <t>Interest/Enjoyment</t>
+  </si>
+  <si>
+    <t>GiS/K-Int/E</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified</t>
+  </si>
+  <si>
+    <t>Grupo11</t>
+  </si>
+  <si>
+    <t>Grupo4</t>
+  </si>
+  <si>
+    <t>Grupo8</t>
+  </si>
+  <si>
+    <t>Grupo6</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skills/Knowledge - Perceived Choice in Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Perceived Choice</t>
+  </si>
+  <si>
+    <t>GiS/K-PrcvC</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
   </si>
   <si>
     <t>ont-gamified</t>
@@ -103,73 +180,34 @@
     <t>Resistance</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
     <t>Social Achiever</t>
   </si>
   <si>
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Interest/Enjoyment in w/o-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Interest/Enjoyment in w/o-gamified.Apprentice</t>
+    <t>Pressure/Tension</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Interest/Enjoyment in w/o-gamified.Apprentice</t>
+    <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>w/o-gamified</t>
+    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>Grupo11</t>
+    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>Grupo2</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Grupo3</t>
+    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Grupo10</t>
-  </si>
-  <si>
-    <t>Grupo9</t>
-  </si>
-  <si>
-    <t>Grupo4</t>
-  </si>
-  <si>
-    <t>Grupo8</t>
-  </si>
-  <si>
-    <t>Grupo6</t>
-  </si>
-  <si>
-    <t>Grupo7</t>
-  </si>
-  <si>
-    <t>Apprentice</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Correlation information for DiffTheta - Attention in ont-gamified.Master using the method: spearman</t>
-  </si>
-  <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>DffTh-Attnt</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Attention in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Attention in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -177,13 +215,959 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="223">
+  <fonts count="371">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1647,7 +2631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2141,6 +3125,334 @@
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2198,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.5765999761251577</v>
+        <v>-0.6306562238868911</v>
       </c>
     </row>
     <row r="7">
@@ -2209,10 +3521,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.5765999761251577</v>
+        <v>-0.6306562238868911</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -2243,11 +3555,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="51">
-        <v>1.0610843071323897E8</v>
+      <c r="B12" t="e" s="51">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-1.578059686304943</v>
+        <v>-1.8171094607790772</v>
       </c>
     </row>
     <row r="13">
@@ -2255,10 +3567,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-1.578059686304943</v>
-      </c>
-      <c r="C13" t="e" s="52">
-        <v>#DIV/0!</v>
+        <v>-1.8171094607790772</v>
+      </c>
+      <c r="C13" t="n" s="52">
+        <v>1.0610843071323897E8</v>
       </c>
     </row>
     <row r="14">
@@ -2290,10 +3602,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="71">
-        <v>1.4110889914610554E-39</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.1753818245224565</v>
+        <v>0.12888769568495784</v>
       </c>
     </row>
     <row r="19">
@@ -2301,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.1753818245224565</v>
+        <v>0.12888769568495784</v>
       </c>
       <c r="C19" t="n" s="72">
-        <v>-0.0</v>
+        <v>1.4110889914610554E-39</v>
       </c>
     </row>
     <row r="20">
@@ -2342,16 +3654,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.9270992653090772</v>
+        <v>-0.9381617973113673</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.5765999761251577</v>
+        <v>-0.6306562238868911</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.3118810135719193</v>
+        <v>0.2331112747582477</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.1753818245224565</v>
+        <v>0.12888769568495784</v>
       </c>
     </row>
     <row r="25">
@@ -2379,58 +3691,58 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.16957045618326988</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.5136755173037465</v>
+        <v>0.0559292976793663</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>0.056303131700413886</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>0.3072097500789291</v>
+        <v>0.30411727391600923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>0.1057289325304706</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>-0.5415918102542824</v>
+        <v>-0.027942256382665006</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>-0.04569478785011341</v>
+        <v>-0.01644788860766827</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>0.5136755173037465</v>
+        <v>-0.7697880104193541</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>0.013932201703524574</v>
+        <v>-0.06899602363501678</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>1.2994045801764238</v>
+        <v>0.08207361318496362</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>-0.023457684006790103</v>
+        <v>-0.09113189471052305</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>1.6363701348851551</v>
+        <v>0.8834707702383228</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>0.05532693638498046</v>
+        <v>-0.006734221999685951</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>1.1179968928576578</v>
+        <v>-0.28233709650755223</v>
       </c>
     </row>
     <row r="36">
@@ -2476,10 +3788,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="133">
-        <v>10175.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B40" t="n" s="134">
-        <v>1.03107E7</v>
+        <v>1.0276852E7</v>
       </c>
       <c r="C40" t="s" s="135">
         <v>21</v>
@@ -2494,18 +3806,18 @@
         <v>30</v>
       </c>
       <c r="G40" t="n" s="139">
-        <v>0.16957045618326988</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="H40" t="n" s="140">
-        <v>0.5136755173037465</v>
+        <v>0.0559292976793663</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="133">
-        <v>10176.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B41" t="n" s="134">
-        <v>1.0276949E7</v>
+        <v>1.0310759E7</v>
       </c>
       <c r="C41" t="s" s="135">
         <v>21</v>
@@ -2520,18 +3832,18 @@
         <v>30</v>
       </c>
       <c r="G41" t="n" s="139">
-        <v>0.056303131700413886</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="H41" t="n" s="140">
-        <v>0.3072097500789291</v>
+        <v>0.30411727391600923</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="133">
-        <v>10188.0</v>
+        <v>10191.0</v>
       </c>
       <c r="B42" t="n" s="134">
-        <v>1.0276995E7</v>
+        <v>1.0276981E7</v>
       </c>
       <c r="C42" t="s" s="135">
         <v>21</v>
@@ -2543,21 +3855,21 @@
         <v>29</v>
       </c>
       <c r="F42" t="s" s="138">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="n" s="139">
-        <v>0.1057289325304706</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="H42" t="n" s="140">
-        <v>-0.5415918102542824</v>
+        <v>-0.027942256382665006</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="133">
-        <v>10215.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B43" t="n" s="134">
-        <v>9285227.0</v>
+        <v>1.0276831E7</v>
       </c>
       <c r="C43" t="s" s="135">
         <v>21</v>
@@ -2572,18 +3884,18 @@
         <v>30</v>
       </c>
       <c r="G43" t="n" s="139">
-        <v>-0.04569478785011341</v>
+        <v>-0.01644788860766827</v>
       </c>
       <c r="H43" t="n" s="140">
-        <v>0.5136755173037465</v>
+        <v>-0.7697880104193541</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="133">
-        <v>10216.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B44" t="n" s="134">
-        <v>1.027672E7</v>
+        <v>9274382.0</v>
       </c>
       <c r="C44" t="s" s="135">
         <v>21</v>
@@ -2598,18 +3910,18 @@
         <v>30</v>
       </c>
       <c r="G44" t="n" s="139">
-        <v>0.013932201703524574</v>
+        <v>-0.06899602363501678</v>
       </c>
       <c r="H44" t="n" s="140">
-        <v>1.2994045801764238</v>
+        <v>0.08207361318496362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="133">
-        <v>10223.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B45" t="n" s="134">
-        <v>9795185.0</v>
+        <v>1.0276911E7</v>
       </c>
       <c r="C45" t="s" s="135">
         <v>21</v>
@@ -2624,18 +3936,18 @@
         <v>30</v>
       </c>
       <c r="G45" t="n" s="139">
-        <v>-0.023457684006790103</v>
+        <v>-0.09113189471052305</v>
       </c>
       <c r="H45" t="n" s="140">
-        <v>1.6363701348851551</v>
+        <v>0.8834707702383228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="133">
-        <v>10230.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B46" t="n" s="134">
-        <v>1.0351992E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C46" t="s" s="135">
         <v>21</v>
@@ -2650,10 +3962,10 @@
         <v>30</v>
       </c>
       <c r="G46" t="n" s="139">
-        <v>0.05532693638498046</v>
+        <v>-0.006734221999685951</v>
       </c>
       <c r="H46" t="n" s="140">
-        <v>1.1179968928576578</v>
+        <v>-0.28233709650755223</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +3994,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -2706,7 +4018,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -2717,18 +4029,18 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>-0.553374649685617</v>
+        <v>-0.5229290585023889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>-0.553374649685617</v>
+        <v>-0.5229290585023889</v>
       </c>
       <c r="C7" t="n" s="172">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2752,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2763,18 +4075,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>-2.573090716825457</v>
+        <v>-2.942221568379401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>-2.573090716825457</v>
-      </c>
-      <c r="C13" t="n" s="192">
-        <v>2.5991151265489843E8</v>
+        <v>-2.942221568379401</v>
+      </c>
+      <c r="C13" t="e" s="192">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -2798,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2809,18 +4121,18 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.02120377192654648</v>
+        <v>0.007315824896593154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.02120377192654648</v>
+        <v>0.007315824896593154</v>
       </c>
       <c r="C19" t="n" s="212">
-        <v>8.034580660781988E-119</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -2855,19 +4167,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.8167760699859032</v>
+        <v>-0.7608491710000442</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>-0.553374649685617</v>
+        <v>-0.5229290585023889</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>-0.09908387998772156</v>
+        <v>-0.16108174421976693</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.02120377192654648</v>
+        <v>0.007315824896593154</v>
       </c>
     </row>
     <row r="25">
@@ -2882,7 +4194,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2890,626 +4202,898 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>-0.041323962933017246</v>
+        <v>-0.04986424823584051</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>0.722578751738864</v>
+        <v>0.7207230177595974</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>0.08541944198226327</v>
+        <v>-0.0872447068412212</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>-1.2478617400508751</v>
+        <v>1.7947392767601646</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>0.018718492940177533</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>-0.6834886787801833</v>
+        <v>1.1160486233031568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>-0.11941865404391734</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>0.3072097500789291</v>
+        <v>0.10947233350060595</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>-0.07749983233413471</v>
+        <v>0.061983670949419194</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>1.4713917306250737</v>
+        <v>-1.2497873738163565</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="253">
-        <v>-0.09159386649259177</v>
+        <v>-0.02250697995988229</v>
       </c>
       <c r="B34" t="n" s="254">
-        <v>-0.3940273949423549</v>
+        <v>-0.6853546500580784</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="253">
-        <v>-0.030511867444668064</v>
+        <v>-0.09596501460297455</v>
       </c>
       <c r="B35" t="n" s="254">
-        <v>-0.07029416443473334</v>
+        <v>0.30539635192697123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="253">
-        <v>-0.04631931583472952</v>
+        <v>-0.048666718073710154</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>1.796929801124419</v>
+        <v>1.4693286384659516</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="253">
-        <v>0.059849996867639116</v>
+        <v>-0.05848664139088422</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>-2.303139183693351</v>
+        <v>-0.39586837009117026</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="253">
-        <v>0.013110995372851564</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="B38" t="n" s="254">
-        <v>0.11128482956139249</v>
+        <v>-1.1036517024817485</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="253">
-        <v>-0.0029050177280996823</v>
+        <v>-0.026955419662028447</v>
       </c>
       <c r="B39" t="n" s="254">
-        <v>-2.303139183693351</v>
+        <v>-0.07211328311855836</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="253">
-        <v>0.03266826984686335</v>
+        <v>-0.06222144425386064</v>
       </c>
       <c r="B40" t="n" s="254">
-        <v>0.3072097500789291</v>
+        <v>1.7947392767601646</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="253">
-        <v>0.031449376418941716</v>
+        <v>0.061983670949419194</v>
       </c>
       <c r="B41" t="n" s="254">
-        <v>0.9255381727607529</v>
+        <v>-2.098349763157695</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="253">
-        <v>-0.003919881413440015</v>
+        <v>-0.021736265354138248</v>
       </c>
       <c r="B42" t="n" s="254">
-        <v>0.5136755173037465</v>
+        <v>0.10947233350060595</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="253">
-        <v>-0.027310568422105892</v>
+        <v>-0.008315214676891933</v>
       </c>
       <c r="B43" t="n" s="254">
-        <v>-0.9609315422916277</v>
+        <v>-2.098349763157695</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="253">
-        <v>0.046853366463894125</v>
+        <v>2.558976293568216E-4</v>
       </c>
       <c r="B44" t="n" s="254">
-        <v>-1.992036262251671</v>
+        <v>0.30539635192697123</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="253">
-        <v>-0.05973549941674333</v>
+        <v>0.04682857407513826</v>
       </c>
       <c r="B45" t="n" s="254">
-        <v>1.1179968928576578</v>
+        <v>0.9236404853068739</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
+      <c r="A46" t="n" s="253">
+        <v>-0.0314904552250829</v>
+      </c>
+      <c r="B46" t="n" s="254">
+        <v>0.5118485930252792</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="253">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="B47" t="n" s="254">
+        <v>-1.5744672385270468</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="253">
+        <v>0.05674337203504389</v>
+      </c>
+      <c r="B48" t="n" s="254">
+        <v>-0.9628246630350216</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="253">
+        <v>0.05417317406766458</v>
+      </c>
+      <c r="B49" t="n" s="254">
+        <v>-1.9940956983889282</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="253">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="B50" t="n" s="254">
+        <v>0.9236404853068738</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="253">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="B51" t="n" s="254">
+        <v>1.1160486233031568</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="253">
+        <v>-0.07557427164140706</v>
+      </c>
+      <c r="B52" t="n" s="254">
+        <v>1.116048623303157</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="253">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="B53" t="n" s="254">
+        <v>0.30539635192697123</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s">
+    <row r="55">
+      <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="258">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="272">
+    <row r="56">
+      <c r="A56" t="s" s="258">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="272">
         <v>15</v>
       </c>
-      <c r="B49" t="s" s="272">
+      <c r="B57" t="s" s="272">
         <v>16</v>
       </c>
-      <c r="C49" t="s" s="272">
+      <c r="C57" t="s" s="272">
         <v>17</v>
       </c>
-      <c r="D49" t="s" s="272">
+      <c r="D57" t="s" s="272">
         <v>18</v>
       </c>
-      <c r="E49" t="s" s="272">
+      <c r="E57" t="s" s="272">
         <v>19</v>
       </c>
-      <c r="F49" t="s" s="272">
+      <c r="F57" t="s" s="272">
         <v>20</v>
       </c>
-      <c r="G49" t="s" s="272">
+      <c r="G57" t="s" s="272">
         <v>3</v>
       </c>
-      <c r="H49" t="s" s="272">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="273">
-        <v>10170.0</v>
-      </c>
-      <c r="B50" t="n" s="274">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C50" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D50" t="s" s="276">
-        <v>36</v>
-      </c>
-      <c r="E50" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F50" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G50" t="n" s="279">
-        <v>-0.041323962933017246</v>
-      </c>
-      <c r="H50" t="n" s="280">
-        <v>0.722578751738864</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="273">
-        <v>10181.0</v>
-      </c>
-      <c r="B51" t="n" s="274">
-        <v>1.0276866E7</v>
-      </c>
-      <c r="C51" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D51" t="s" s="276">
-        <v>37</v>
-      </c>
-      <c r="E51" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F51" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G51" t="n" s="279">
-        <v>0.08541944198226327</v>
-      </c>
-      <c r="H51" t="n" s="280">
-        <v>-1.2478617400508751</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="273">
-        <v>10183.0</v>
-      </c>
-      <c r="B52" t="n" s="274">
-        <v>1.035203E7</v>
-      </c>
-      <c r="C52" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D52" t="s" s="276">
-        <v>38</v>
-      </c>
-      <c r="E52" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G52" t="n" s="279">
-        <v>0.018718492940177533</v>
-      </c>
-      <c r="H52" t="n" s="280">
-        <v>-0.6834886787801833</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="273">
-        <v>10184.0</v>
-      </c>
-      <c r="B53" t="n" s="274">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C53" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D53" t="s" s="276">
-        <v>39</v>
-      </c>
-      <c r="E53" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F53" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G53" t="n" s="279">
-        <v>-0.11941865404391734</v>
-      </c>
-      <c r="H53" t="n" s="280">
-        <v>0.3072097500789291</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="273">
-        <v>10185.0</v>
-      </c>
-      <c r="B54" t="n" s="274">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C54" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D54" t="s" s="276">
-        <v>40</v>
-      </c>
-      <c r="E54" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F54" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G54" t="n" s="279">
-        <v>-0.07749983233413471</v>
-      </c>
-      <c r="H54" t="n" s="280">
-        <v>1.4713917306250737</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="273">
-        <v>10190.0</v>
-      </c>
-      <c r="B55" t="n" s="274">
-        <v>1.0276907E7</v>
-      </c>
-      <c r="C55" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D55" t="s" s="276">
-        <v>41</v>
-      </c>
-      <c r="E55" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F55" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G55" t="n" s="279">
-        <v>-0.09159386649259177</v>
-      </c>
-      <c r="H55" t="n" s="280">
-        <v>-0.3940273949423549</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="273">
-        <v>10197.0</v>
-      </c>
-      <c r="B56" t="n" s="274">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C56" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D56" t="s" s="276">
-        <v>42</v>
-      </c>
-      <c r="E56" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F56" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G56" t="n" s="279">
-        <v>-0.030511867444668064</v>
-      </c>
-      <c r="H56" t="n" s="280">
-        <v>-0.07029416443473334</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="273">
-        <v>10201.0</v>
-      </c>
-      <c r="B57" t="n" s="274">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C57" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s" s="276">
-        <v>36</v>
-      </c>
-      <c r="E57" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F57" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G57" t="n" s="279">
-        <v>-0.04631931583472952</v>
-      </c>
-      <c r="H57" t="n" s="280">
-        <v>1.796929801124419</v>
+      <c r="H57" t="s" s="272">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="273">
-        <v>10204.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B58" t="n" s="274">
-        <v>1.0310471E7</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C58" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s" s="276">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s" s="277">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G58" t="n" s="279">
-        <v>0.059849996867639116</v>
+        <v>-0.04986424823584051</v>
       </c>
       <c r="H58" t="n" s="280">
-        <v>-2.303139183693351</v>
+        <v>0.7207230177595974</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="273">
-        <v>10206.0</v>
+        <v>10172.0</v>
       </c>
       <c r="B59" t="n" s="274">
-        <v>1.0310721E7</v>
+        <v>1.0273971E7</v>
       </c>
       <c r="C59" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s" s="276">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s" s="277">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G59" t="n" s="279">
-        <v>0.013110995372851564</v>
+        <v>-0.0872447068412212</v>
       </c>
       <c r="H59" t="n" s="280">
-        <v>0.11128482956139249</v>
+        <v>1.7947392767601646</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="273">
-        <v>10210.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B60" t="n" s="274">
-        <v>1.0277015E7</v>
+        <v>1.0276852E7</v>
       </c>
       <c r="C60" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s" s="276">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s" s="277">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G60" t="n" s="279">
-        <v>-0.0029050177280996823</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="H60" t="n" s="280">
-        <v>-2.303139183693351</v>
+        <v>1.1160486233031568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="273">
-        <v>10213.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B61" t="n" s="274">
-        <v>1.027704E7</v>
+        <v>1.0310759E7</v>
       </c>
       <c r="C61" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s" s="276">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s" s="277">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G61" t="n" s="279">
-        <v>0.03266826984686335</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="H61" t="n" s="280">
-        <v>0.3072097500789291</v>
+        <v>0.10947233350060595</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="273">
-        <v>10217.0</v>
+        <v>10181.0</v>
       </c>
       <c r="B62" t="n" s="274">
-        <v>9805341.0</v>
+        <v>1.0276866E7</v>
       </c>
       <c r="C62" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s" s="277">
         <v>40</v>
       </c>
-      <c r="E62" t="s" s="277">
-        <v>45</v>
-      </c>
       <c r="F62" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n" s="279">
-        <v>0.031449376418941716</v>
+        <v>0.061983670949419194</v>
       </c>
       <c r="H62" t="n" s="280">
-        <v>0.9255381727607529</v>
+        <v>-1.2497873738163565</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="273">
-        <v>10218.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B63" t="n" s="274">
-        <v>9842913.0</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C63" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s" s="276">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s" s="277">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n" s="279">
-        <v>-0.003919881413440015</v>
+        <v>-0.02250697995988229</v>
       </c>
       <c r="H63" t="n" s="280">
-        <v>0.5136755173037465</v>
+        <v>-0.6853546500580784</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="273">
-        <v>10220.0</v>
+        <v>10184.0</v>
       </c>
       <c r="B64" t="n" s="274">
-        <v>9760151.0</v>
+        <v>1.0276675E7</v>
       </c>
       <c r="C64" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s" s="276">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s" s="277">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G64" t="n" s="279">
-        <v>-0.027310568422105892</v>
+        <v>-0.09596501460297455</v>
       </c>
       <c r="H64" t="n" s="280">
-        <v>-0.9609315422916277</v>
+        <v>0.30539635192697123</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="273">
-        <v>10226.0</v>
+        <v>10185.0</v>
       </c>
       <c r="B65" t="n" s="274">
-        <v>1.0310342E7</v>
+        <v>1.027696E7</v>
       </c>
       <c r="C65" t="s" s="275">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s" s="276">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s" s="277">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s" s="278">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n" s="279">
-        <v>0.046853366463894125</v>
+        <v>-0.048666718073710154</v>
       </c>
       <c r="H65" t="n" s="280">
-        <v>-1.992036262251671</v>
+        <v>1.4693286384659516</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="273">
+        <v>10190.0</v>
+      </c>
+      <c r="B66" t="n" s="274">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C66" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s" s="276">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G66" t="n" s="279">
+        <v>-0.05848664139088422</v>
+      </c>
+      <c r="H66" t="n" s="280">
+        <v>-0.39586837009117026</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="273">
+        <v>10191.0</v>
+      </c>
+      <c r="B67" t="n" s="274">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C67" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s" s="276">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s" s="277">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G67" t="n" s="279">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="H67" t="n" s="280">
+        <v>-1.1036517024817485</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B68" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C68" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s" s="276">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G68" t="n" s="279">
+        <v>-0.026955419662028447</v>
+      </c>
+      <c r="H68" t="n" s="280">
+        <v>-0.07211328311855836</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="273">
+        <v>10201.0</v>
+      </c>
+      <c r="B69" t="n" s="274">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C69" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s" s="276">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G69" t="n" s="279">
+        <v>-0.06222144425386064</v>
+      </c>
+      <c r="H69" t="n" s="280">
+        <v>1.7947392767601646</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="273">
+        <v>10204.0</v>
+      </c>
+      <c r="B70" t="n" s="274">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C70" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G70" t="n" s="279">
+        <v>0.061983670949419194</v>
+      </c>
+      <c r="H70" t="n" s="280">
+        <v>-2.098349763157695</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="273">
+        <v>10206.0</v>
+      </c>
+      <c r="B71" t="n" s="274">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C71" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s" s="276">
+        <v>38</v>
+      </c>
+      <c r="E71" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G71" t="n" s="279">
+        <v>-0.021736265354138248</v>
+      </c>
+      <c r="H71" t="n" s="280">
+        <v>0.10947233350060595</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="273">
+        <v>10210.0</v>
+      </c>
+      <c r="B72" t="n" s="274">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C72" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E72" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G72" t="n" s="279">
+        <v>-0.008315214676891933</v>
+      </c>
+      <c r="H72" t="n" s="280">
+        <v>-2.098349763157695</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="273">
+        <v>10213.0</v>
+      </c>
+      <c r="B73" t="n" s="274">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C73" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s" s="276">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G73" t="n" s="279">
+        <v>2.558976293568216E-4</v>
+      </c>
+      <c r="H73" t="n" s="280">
+        <v>0.30539635192697123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="273">
+        <v>10217.0</v>
+      </c>
+      <c r="B74" t="n" s="274">
+        <v>9805341.0</v>
+      </c>
+      <c r="C74" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s" s="276">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G74" t="n" s="279">
+        <v>0.04682857407513826</v>
+      </c>
+      <c r="H74" t="n" s="280">
+        <v>0.9236404853068739</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="273">
+        <v>10218.0</v>
+      </c>
+      <c r="B75" t="n" s="274">
+        <v>9842913.0</v>
+      </c>
+      <c r="C75" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s" s="276">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G75" t="n" s="279">
+        <v>-0.0314904552250829</v>
+      </c>
+      <c r="H75" t="n" s="280">
+        <v>0.5118485930252792</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="273">
+        <v>10219.0</v>
+      </c>
+      <c r="B76" t="n" s="274">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C76" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s" s="277">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G76" t="n" s="279">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="H76" t="n" s="280">
+        <v>-1.5744672385270468</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="273">
+        <v>10220.0</v>
+      </c>
+      <c r="B77" t="n" s="274">
+        <v>9760151.0</v>
+      </c>
+      <c r="C77" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G77" t="n" s="279">
+        <v>0.05674337203504389</v>
+      </c>
+      <c r="H77" t="n" s="280">
+        <v>-0.9628246630350216</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="273">
+        <v>10226.0</v>
+      </c>
+      <c r="B78" t="n" s="274">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C78" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s" s="276">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G78" t="n" s="279">
+        <v>0.05417317406766458</v>
+      </c>
+      <c r="H78" t="n" s="280">
+        <v>-1.9940956983889282</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="273">
+        <v>10227.0</v>
+      </c>
+      <c r="B79" t="n" s="274">
+        <v>9274382.0</v>
+      </c>
+      <c r="C79" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s" s="276">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s" s="277">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G79" t="n" s="279">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="H79" t="n" s="280">
+        <v>0.9236404853068738</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="273">
+        <v>10231.0</v>
+      </c>
+      <c r="B80" t="n" s="274">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C80" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s" s="276">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s" s="277">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G80" t="n" s="279">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="H80" t="n" s="280">
+        <v>1.1160486233031568</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="273">
         <v>10232.0</v>
       </c>
-      <c r="B66" t="n" s="274">
+      <c r="B81" t="n" s="274">
         <v>1.0276974E7</v>
       </c>
-      <c r="C66" t="s" s="275">
-        <v>35</v>
-      </c>
-      <c r="D66" t="s" s="276">
-        <v>44</v>
-      </c>
-      <c r="E66" t="s" s="277">
-        <v>45</v>
-      </c>
-      <c r="F66" t="s" s="278">
-        <v>46</v>
-      </c>
-      <c r="G66" t="n" s="279">
-        <v>-0.05973549941674333</v>
-      </c>
-      <c r="H66" t="n" s="280">
-        <v>1.1179968928576578</v>
+      <c r="C81" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s" s="276">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s" s="277">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G81" t="n" s="279">
+        <v>-0.07557427164140706</v>
+      </c>
+      <c r="H81" t="n" s="280">
+        <v>1.116048623303157</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="273">
+        <v>10238.0</v>
+      </c>
+      <c r="B82" t="n" s="274">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C82" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s" s="277">
+        <v>29</v>
+      </c>
+      <c r="F82" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G82" t="n" s="279">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="H82" t="n" s="280">
+        <v>0.30539635192697123</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +5122,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -3562,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -3570,18 +5154,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="311">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.5946187253790688</v>
+        <v>0.5347302037262345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.5946187253790688</v>
+        <v>0.5347302037262345</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -3608,26 +5192,26 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="326">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="331">
-        <v>1.0610843071323897E8</v>
+      <c r="B12" t="e" s="331">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>1.6537250768595888</v>
+        <v>2.1920824655889617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>1.6537250768595888</v>
+        <v>2.1920824655889617</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -3654,7 +5238,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -3662,18 +5246,18 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="351">
-        <v>1.4110889914610554E-39</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.15908999370118487</v>
+        <v>0.04882525775440077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.15908999370118487</v>
+        <v>0.04882525775440077</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>-0.0</v>
@@ -3711,19 +5295,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.2869147945126749</v>
+        <v>0.005794777412066293</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.5946187253790688</v>
+        <v>0.5347302037262345</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.9308558974684631</v>
+        <v>0.8298634366315476</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.15908999370118487</v>
+        <v>0.04882525775440077</v>
       </c>
     </row>
     <row r="25">
@@ -3738,7 +5322,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -3746,63 +5330,1571 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>0.16957045618326988</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>1.3158093545003064</v>
+        <v>0.08661004612576251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>0.056303131700413886</v>
+        <v>0.13670973844919532</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>0.4716190619497687</v>
+        <v>2.1812873658176186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>0.1057289325304706</v>
+        <v>-0.1371854361110567</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>-0.4634310404534047</v>
+        <v>-0.571541021942381</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>-0.04569478785011341</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>-0.6869022357875035</v>
+        <v>-1.2606166596974884</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>0.013932201703524574</v>
+        <v>0.12005763951268639</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>-0.06636168578590759</v>
+        <v>1.6300613239310544</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>-0.023457684006790103</v>
+        <v>-0.14214084424821224</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>-0.06636168578590759</v>
+        <v>-0.7416233807808368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="393">
-        <v>0.05532693638498046</v>
+        <v>-0.07676191672976868</v>
       </c>
       <c r="B35" t="n" s="394">
-        <v>0.8451133296586953</v>
+        <v>0.9510779812680862</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="393">
+        <v>0.009263422003753456</v>
+      </c>
+      <c r="B36" t="n" s="394">
+        <v>1.2580230179601286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="393">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="B37" t="n" s="394">
+        <v>-0.7416233807808368</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="393">
+        <v>-0.024982259368366684</v>
+      </c>
+      <c r="B38" t="n" s="394">
+        <v>0.08661004612576251</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="393">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="B39" t="n" s="394">
+        <v>0.3851041133633959</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="393">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="B40" t="n" s="394">
+        <v>-0.07137047387597562</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="393">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="B41" t="n" s="394">
+        <v>1.255774933272715</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="393">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="B42" t="n" s="394">
+        <v>-1.0845524682984933</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="398">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s" s="412">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s" s="412">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="413">
+        <v>10174.0</v>
+      </c>
+      <c r="B47" t="n" s="414">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C47" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="416">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s" s="418">
+        <v>30</v>
+      </c>
+      <c r="G47" t="n" s="419">
+        <v>-0.06419279982804033</v>
+      </c>
+      <c r="H47" t="n" s="420">
+        <v>0.08661004612576251</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="413">
+        <v>10175.0</v>
+      </c>
+      <c r="B48" t="n" s="414">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C48" t="s" s="415">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s" s="416">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G48" t="n" s="419">
+        <v>0.13670973844919532</v>
+      </c>
+      <c r="H48" t="n" s="420">
+        <v>2.1812873658176186</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="413">
+        <v>10176.0</v>
+      </c>
+      <c r="B49" t="n" s="414">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C49" t="s" s="415">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s" s="416">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G49" t="n" s="419">
+        <v>-0.1371854361110567</v>
+      </c>
+      <c r="H49" t="n" s="420">
+        <v>-0.571541021942381</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="413">
+        <v>10179.0</v>
+      </c>
+      <c r="B50" t="n" s="414">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C50" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="416">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s" s="418">
+        <v>30</v>
+      </c>
+      <c r="G50" t="n" s="419">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="H50" t="n" s="420">
+        <v>-1.2606166596974884</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="413">
+        <v>10188.0</v>
+      </c>
+      <c r="B51" t="n" s="414">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C51" t="s" s="415">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s" s="416">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s" s="418">
+        <v>55</v>
+      </c>
+      <c r="G51" t="n" s="419">
+        <v>0.12005763951268639</v>
+      </c>
+      <c r="H51" t="n" s="420">
+        <v>1.6300613239310544</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="413">
+        <v>10191.0</v>
+      </c>
+      <c r="B52" t="n" s="414">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C52" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="416">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s" s="418">
+        <v>30</v>
+      </c>
+      <c r="G52" t="n" s="419">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="H52" t="n" s="420">
+        <v>-0.7416233807808368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="413">
+        <v>10215.0</v>
+      </c>
+      <c r="B53" t="n" s="414">
+        <v>9285227.0</v>
+      </c>
+      <c r="C53" t="s" s="415">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s" s="416">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G53" t="n" s="419">
+        <v>-0.07676191672976868</v>
+      </c>
+      <c r="H53" t="n" s="420">
+        <v>0.9510779812680862</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="413">
+        <v>10216.0</v>
+      </c>
+      <c r="B54" t="n" s="414">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C54" t="s" s="415">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s" s="416">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G54" t="n" s="419">
+        <v>0.009263422003753456</v>
+      </c>
+      <c r="H54" t="n" s="420">
+        <v>1.2580230179601286</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="413">
+        <v>10219.0</v>
+      </c>
+      <c r="B55" t="n" s="414">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C55" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="416">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s" s="418">
+        <v>30</v>
+      </c>
+      <c r="G55" t="n" s="419">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="H55" t="n" s="420">
+        <v>-0.7416233807808368</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="413">
+        <v>10223.0</v>
+      </c>
+      <c r="B56" t="n" s="414">
+        <v>9795185.0</v>
+      </c>
+      <c r="C56" t="s" s="415">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s" s="416">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G56" t="n" s="419">
+        <v>-0.024982259368366684</v>
+      </c>
+      <c r="H56" t="n" s="420">
+        <v>0.08661004612576251</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="413">
+        <v>10227.0</v>
+      </c>
+      <c r="B57" t="n" s="414">
+        <v>9274382.0</v>
+      </c>
+      <c r="C57" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="416">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s" s="418">
+        <v>30</v>
+      </c>
+      <c r="G57" t="n" s="419">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="H57" t="n" s="420">
+        <v>0.3851041133633959</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="413">
+        <v>10230.0</v>
+      </c>
+      <c r="B58" t="n" s="414">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C58" t="s" s="415">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s" s="416">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s" s="418">
+        <v>54</v>
+      </c>
+      <c r="G58" t="n" s="419">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="H58" t="n" s="420">
+        <v>-0.07137047387597562</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="413">
+        <v>10231.0</v>
+      </c>
+      <c r="B59" t="n" s="414">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C59" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="416">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s" s="418">
+        <v>30</v>
+      </c>
+      <c r="G59" t="n" s="419">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="H59" t="n" s="420">
+        <v>1.255774933272715</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="413">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="414">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C60" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="416">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s" s="417">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s" s="418">
+        <v>30</v>
+      </c>
+      <c r="G60" t="n" s="419">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="H60" t="n" s="420">
+        <v>-1.0845524682984933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="422">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="450">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="450">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="446">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="452">
+        <v>-0.5117858346297165</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="446">
+        <v>57</v>
+      </c>
+      <c r="B7" t="n" s="451">
+        <v>-0.5117858346297165</v>
+      </c>
+      <c r="C7" t="n" s="452">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="470">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="470">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="466">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="471">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="472">
+        <v>-2.063614450004886</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="466">
+        <v>57</v>
+      </c>
+      <c r="B13" t="n" s="471">
+        <v>-2.063614450004886</v>
+      </c>
+      <c r="C13" t="e" s="472">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="490">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="490">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="486">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="491">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="492">
+        <v>0.06137740657759838</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="486">
+        <v>57</v>
+      </c>
+      <c r="B19" t="n" s="491">
+        <v>0.06137740657759838</v>
+      </c>
+      <c r="C19" t="n" s="492">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="510">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="510">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="510">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="506">
+        <v>58</v>
+      </c>
+      <c r="B24" t="n" s="511">
+        <v>-0.8197640794412132</v>
+      </c>
+      <c r="C24" t="n" s="512">
+        <v>-0.5117858346297165</v>
+      </c>
+      <c r="D24" t="n" s="513">
+        <v>0.025799285037911332</v>
+      </c>
+      <c r="E24" t="n" s="514">
+        <v>0.06137740657759838</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="518">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="532">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="532">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="533">
+        <v>-0.06419279982804033</v>
+      </c>
+      <c r="B29" t="n" s="534">
+        <v>0.2743906651245185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="533">
+        <v>0.13670973844919532</v>
+      </c>
+      <c r="B30" t="n" s="534">
+        <v>-1.5713683015865159</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="533">
+        <v>-0.1371854361110567</v>
+      </c>
+      <c r="B31" t="n" s="534">
+        <v>0.6739289455131704</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="533">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="B32" t="n" s="534">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="533">
+        <v>0.12005763951268639</v>
+      </c>
+      <c r="B33" t="n" s="534">
+        <v>-1.5713683015865159</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="533">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="B34" t="n" s="534">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="533">
+        <v>-0.07676191672976868</v>
+      </c>
+      <c r="B35" t="n" s="534">
+        <v>-0.34516387181251634</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="533">
+        <v>0.009263422003753456</v>
+      </c>
+      <c r="B36" t="n" s="534">
+        <v>-1.5713683015865159</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="533">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="B37" t="n" s="534">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="533">
+        <v>-0.024982259368366684</v>
+      </c>
+      <c r="B38" t="n" s="534">
+        <v>0.09842018285070941</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="533">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="B39" t="n" s="534">
+        <v>0.21805805010936075</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="533">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="B40" t="n" s="534">
+        <v>0.34930127604675565</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="533">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="B41" t="n" s="534">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="533">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="B42" t="n" s="534">
+        <v>0.27439066512451826</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="538">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s" s="552">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s" s="552">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="553">
+        <v>10174.0</v>
+      </c>
+      <c r="B47" t="n" s="554">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C47" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="556">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s" s="558">
+        <v>30</v>
+      </c>
+      <c r="G47" t="n" s="559">
+        <v>-0.06419279982804033</v>
+      </c>
+      <c r="H47" t="n" s="560">
+        <v>0.2743906651245185</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="553">
+        <v>10175.0</v>
+      </c>
+      <c r="B48" t="n" s="554">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C48" t="s" s="555">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s" s="556">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G48" t="n" s="559">
+        <v>0.13670973844919532</v>
+      </c>
+      <c r="H48" t="n" s="560">
+        <v>-1.5713683015865159</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="553">
+        <v>10176.0</v>
+      </c>
+      <c r="B49" t="n" s="554">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C49" t="s" s="555">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s" s="556">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G49" t="n" s="559">
+        <v>-0.1371854361110567</v>
+      </c>
+      <c r="H49" t="n" s="560">
+        <v>0.6739289455131704</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="553">
+        <v>10179.0</v>
+      </c>
+      <c r="B50" t="n" s="554">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C50" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="556">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s" s="558">
+        <v>30</v>
+      </c>
+      <c r="G50" t="n" s="559">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="H50" t="n" s="560">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="553">
+        <v>10188.0</v>
+      </c>
+      <c r="B51" t="n" s="554">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C51" t="s" s="555">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s" s="556">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s" s="558">
+        <v>55</v>
+      </c>
+      <c r="G51" t="n" s="559">
+        <v>0.12005763951268639</v>
+      </c>
+      <c r="H51" t="n" s="560">
+        <v>-1.5713683015865159</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="553">
+        <v>10191.0</v>
+      </c>
+      <c r="B52" t="n" s="554">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C52" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="556">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s" s="558">
+        <v>30</v>
+      </c>
+      <c r="G52" t="n" s="559">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="H52" t="n" s="560">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="553">
+        <v>10215.0</v>
+      </c>
+      <c r="B53" t="n" s="554">
+        <v>9285227.0</v>
+      </c>
+      <c r="C53" t="s" s="555">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s" s="556">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G53" t="n" s="559">
+        <v>-0.07676191672976868</v>
+      </c>
+      <c r="H53" t="n" s="560">
+        <v>-0.34516387181251634</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="553">
+        <v>10216.0</v>
+      </c>
+      <c r="B54" t="n" s="554">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C54" t="s" s="555">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s" s="556">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G54" t="n" s="559">
+        <v>0.009263422003753456</v>
+      </c>
+      <c r="H54" t="n" s="560">
+        <v>-1.5713683015865159</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="553">
+        <v>10219.0</v>
+      </c>
+      <c r="B55" t="n" s="554">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C55" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="556">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s" s="558">
+        <v>30</v>
+      </c>
+      <c r="G55" t="n" s="559">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="H55" t="n" s="560">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="553">
+        <v>10223.0</v>
+      </c>
+      <c r="B56" t="n" s="554">
+        <v>9795185.0</v>
+      </c>
+      <c r="C56" t="s" s="555">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s" s="556">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G56" t="n" s="559">
+        <v>-0.024982259368366684</v>
+      </c>
+      <c r="H56" t="n" s="560">
+        <v>0.09842018285070941</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="553">
+        <v>10227.0</v>
+      </c>
+      <c r="B57" t="n" s="554">
+        <v>9274382.0</v>
+      </c>
+      <c r="C57" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="556">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s" s="558">
+        <v>30</v>
+      </c>
+      <c r="G57" t="n" s="559">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="H57" t="n" s="560">
+        <v>0.21805805010936075</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="553">
+        <v>10230.0</v>
+      </c>
+      <c r="B58" t="n" s="554">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C58" t="s" s="555">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s" s="556">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s" s="558">
+        <v>54</v>
+      </c>
+      <c r="G58" t="n" s="559">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="H58" t="n" s="560">
+        <v>0.34930127604675565</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="553">
+        <v>10231.0</v>
+      </c>
+      <c r="B59" t="n" s="554">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C59" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="556">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s" s="558">
+        <v>30</v>
+      </c>
+      <c r="G59" t="n" s="559">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="H59" t="n" s="560">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="553">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="554">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C60" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="556">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s" s="557">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s" s="558">
+        <v>30</v>
+      </c>
+      <c r="G60" t="n" s="559">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="H60" t="n" s="560">
+        <v>0.27439066512451826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="562">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="590">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="590">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="586">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="591">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="592">
+        <v>0.5964320793656582</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="586">
+        <v>57</v>
+      </c>
+      <c r="B7" t="n" s="591">
+        <v>0.5964320793656582</v>
+      </c>
+      <c r="C7" t="n" s="592">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="610">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="610">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="606">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="612">
+        <v>1.6615463268651347</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="606">
+        <v>57</v>
+      </c>
+      <c r="B13" t="n" s="611">
+        <v>1.6615463268651347</v>
+      </c>
+      <c r="C13" t="e" s="612">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="630">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="630">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="626">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="631">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="632">
+        <v>0.15749402715369473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="626">
+        <v>57</v>
+      </c>
+      <c r="B19" t="n" s="631">
+        <v>0.15749402715369473</v>
+      </c>
+      <c r="C19" t="n" s="632">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="650">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="650">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="650">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="646">
+        <v>58</v>
+      </c>
+      <c r="B24" t="n" s="651">
+        <v>-0.28433414782221383</v>
+      </c>
+      <c r="C24" t="n" s="652">
+        <v>0.5964320793656582</v>
+      </c>
+      <c r="D24" t="n" s="653">
+        <v>0.931230057693073</v>
+      </c>
+      <c r="E24" t="n" s="654">
+        <v>0.15749402715369473</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="658">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="672">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="672">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="673">
+        <v>-0.06419279982804033</v>
+      </c>
+      <c r="B29" t="n" s="674">
+        <v>0.2743906651245185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="673">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="B30" t="n" s="674">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="673">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="B31" t="n" s="674">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="673">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="B32" t="n" s="674">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="673">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="B33" t="n" s="674">
+        <v>0.21805805010936075</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="673">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="B34" t="n" s="674">
+        <v>-1.2168952560366875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="673">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="B35" t="n" s="674">
+        <v>0.27439066512451826</v>
       </c>
     </row>
     <row r="36">
@@ -3816,216 +6908,216 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="398">
-        <v>51</v>
+      <c r="A38" t="s" s="678">
+        <v>63</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="412">
+      <c r="A39" t="s" s="692">
         <v>15</v>
       </c>
-      <c r="B39" t="s" s="412">
+      <c r="B39" t="s" s="692">
         <v>16</v>
       </c>
-      <c r="C39" t="s" s="412">
+      <c r="C39" t="s" s="692">
         <v>17</v>
       </c>
-      <c r="D39" t="s" s="412">
+      <c r="D39" t="s" s="692">
         <v>18</v>
       </c>
-      <c r="E39" t="s" s="412">
+      <c r="E39" t="s" s="692">
         <v>19</v>
       </c>
-      <c r="F39" t="s" s="412">
+      <c r="F39" t="s" s="692">
         <v>20</v>
       </c>
-      <c r="G39" t="s" s="412">
+      <c r="G39" t="s" s="692">
         <v>3</v>
       </c>
-      <c r="H39" t="s" s="412">
-        <v>48</v>
+      <c r="H39" t="s" s="692">
+        <v>57</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="413">
-        <v>10175.0</v>
-      </c>
-      <c r="B40" t="n" s="414">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C40" t="s" s="415">
+      <c r="A40" t="n" s="693">
+        <v>10174.0</v>
+      </c>
+      <c r="B40" t="n" s="694">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C40" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D40" t="s" s="416">
+      <c r="D40" t="s" s="696">
         <v>22</v>
       </c>
-      <c r="E40" t="s" s="417">
+      <c r="E40" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="F40" t="s" s="418">
+      <c r="F40" t="s" s="698">
         <v>30</v>
       </c>
-      <c r="G40" t="n" s="419">
-        <v>0.16957045618326988</v>
-      </c>
-      <c r="H40" t="n" s="420">
-        <v>1.3158093545003064</v>
+      <c r="G40" t="n" s="699">
+        <v>-0.06419279982804033</v>
+      </c>
+      <c r="H40" t="n" s="700">
+        <v>0.2743906651245185</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="413">
-        <v>10176.0</v>
-      </c>
-      <c r="B41" t="n" s="414">
-        <v>1.0276949E7</v>
-      </c>
-      <c r="C41" t="s" s="415">
+      <c r="A41" t="n" s="693">
+        <v>10179.0</v>
+      </c>
+      <c r="B41" t="n" s="694">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C41" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D41" t="s" s="416">
+      <c r="D41" t="s" s="696">
         <v>23</v>
       </c>
-      <c r="E41" t="s" s="417">
+      <c r="E41" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="F41" t="s" s="418">
+      <c r="F41" t="s" s="698">
         <v>30</v>
       </c>
-      <c r="G41" t="n" s="419">
-        <v>0.056303131700413886</v>
-      </c>
-      <c r="H41" t="n" s="420">
-        <v>0.4716190619497687</v>
+      <c r="G41" t="n" s="699">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="H41" t="n" s="700">
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="413">
-        <v>10188.0</v>
-      </c>
-      <c r="B42" t="n" s="414">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C42" t="s" s="415">
+      <c r="A42" t="n" s="693">
+        <v>10191.0</v>
+      </c>
+      <c r="B42" t="n" s="694">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C42" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D42" t="s" s="416">
+      <c r="D42" t="s" s="696">
         <v>24</v>
       </c>
-      <c r="E42" t="s" s="417">
+      <c r="E42" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="F42" t="s" s="418">
-        <v>31</v>
-      </c>
-      <c r="G42" t="n" s="419">
-        <v>0.1057289325304706</v>
-      </c>
-      <c r="H42" t="n" s="420">
-        <v>-0.4634310404534047</v>
+      <c r="F42" t="s" s="698">
+        <v>30</v>
+      </c>
+      <c r="G42" t="n" s="699">
+        <v>-0.14214084424821224</v>
+      </c>
+      <c r="H42" t="n" s="700">
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="413">
-        <v>10215.0</v>
-      </c>
-      <c r="B43" t="n" s="414">
-        <v>9285227.0</v>
-      </c>
-      <c r="C43" t="s" s="415">
+      <c r="A43" t="n" s="693">
+        <v>10219.0</v>
+      </c>
+      <c r="B43" t="n" s="694">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C43" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D43" t="s" s="416">
+      <c r="D43" t="s" s="696">
         <v>25</v>
       </c>
-      <c r="E43" t="s" s="417">
+      <c r="E43" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="F43" t="s" s="418">
+      <c r="F43" t="s" s="698">
         <v>30</v>
       </c>
-      <c r="G43" t="n" s="419">
-        <v>-0.04569478785011341</v>
-      </c>
-      <c r="H43" t="n" s="420">
-        <v>-0.6869022357875035</v>
+      <c r="G43" t="n" s="699">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="H43" t="n" s="700">
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="413">
-        <v>10216.0</v>
-      </c>
-      <c r="B44" t="n" s="414">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C44" t="s" s="415">
+      <c r="A44" t="n" s="693">
+        <v>10227.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>9274382.0</v>
+      </c>
+      <c r="C44" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D44" t="s" s="416">
+      <c r="D44" t="s" s="696">
         <v>26</v>
       </c>
-      <c r="E44" t="s" s="417">
+      <c r="E44" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="F44" t="s" s="418">
+      <c r="F44" t="s" s="698">
         <v>30</v>
       </c>
-      <c r="G44" t="n" s="419">
-        <v>0.013932201703524574</v>
-      </c>
-      <c r="H44" t="n" s="420">
-        <v>-0.06636168578590759</v>
+      <c r="G44" t="n" s="699">
+        <v>-0.06899602363501678</v>
+      </c>
+      <c r="H44" t="n" s="700">
+        <v>0.21805805010936075</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="413">
-        <v>10223.0</v>
-      </c>
-      <c r="B45" t="n" s="414">
-        <v>9795185.0</v>
-      </c>
-      <c r="C45" t="s" s="415">
+      <c r="A45" t="n" s="693">
+        <v>10231.0</v>
+      </c>
+      <c r="B45" t="n" s="694">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C45" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D45" t="s" s="416">
+      <c r="D45" t="s" s="696">
         <v>27</v>
       </c>
-      <c r="E45" t="s" s="417">
+      <c r="E45" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="F45" t="s" s="418">
+      <c r="F45" t="s" s="698">
         <v>30</v>
       </c>
-      <c r="G45" t="n" s="419">
-        <v>-0.023457684006790103</v>
-      </c>
-      <c r="H45" t="n" s="420">
-        <v>-0.06636168578590759</v>
+      <c r="G45" t="n" s="699">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="H45" t="n" s="700">
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="413">
-        <v>10230.0</v>
-      </c>
-      <c r="B46" t="n" s="414">
-        <v>1.0351992E7</v>
-      </c>
-      <c r="C46" t="s" s="415">
+      <c r="A46" t="n" s="693">
+        <v>10238.0</v>
+      </c>
+      <c r="B46" t="n" s="694">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C46" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D46" t="s" s="416">
+      <c r="D46" t="s" s="696">
         <v>28</v>
       </c>
-      <c r="E46" t="s" s="417">
+      <c r="E46" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="F46" t="s" s="418">
+      <c r="F46" t="s" s="698">
         <v>30</v>
       </c>
-      <c r="G46" t="n" s="419">
-        <v>0.05532693638498046</v>
-      </c>
-      <c r="H46" t="n" s="420">
-        <v>0.8451133296586953</v>
+      <c r="G46" t="n" s="699">
+        <v>-0.006734221999685951</v>
+      </c>
+      <c r="H46" t="n" s="700">
+        <v>0.27439066512451826</v>
       </c>
     </row>
   </sheetData>

--- a/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-moderate.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="64">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -27,7 +27,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -57,10 +57,10 @@
     <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -111,7 +111,7 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified using the method: spearman</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -120,10 +120,10 @@
     <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified</t>
   </si>
   <si>
     <t>Grupo11</t>
@@ -141,7 +141,7 @@
     <t>Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Perceived Choice in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in Master using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
@@ -150,10 +150,10 @@
     <t>GiS/K-PrcvC</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in Master</t>
   </si>
   <si>
     <t>ont-gamified</t>
@@ -186,7 +186,7 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in Master using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
@@ -195,19 +195,19 @@
     <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
